--- a/data copy/Motivation im Onlineunterricht Klasse 1-3 PRIKRYL.xlsx
+++ b/data copy/Motivation im Onlineunterricht Klasse 1-3 PRIKRYL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\Python\dataanalysisebert\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B185069-930B-45F4-8896-A5427E16F37C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E5EDD-CBE1-4210-92B6-6118A3C259DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,15 +30,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Start time</t>
-  </si>
-  <si>
-    <t>Completion time</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -423,6 +414,15 @@
   </si>
   <si>
     <t>e3</t>
+  </si>
+  <si>
+    <t>Startzeit</t>
+  </si>
+  <si>
+    <t>Fertigstellungszeit</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
   </si>
 </sst>
 </file>
@@ -601,9 +601,9 @@
   <autoFilter ref="A1:AI40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Startzeit" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fertigstellungszeit" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="E-Mail" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="30"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schulform" dataDxfId="29"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Alter" dataDxfId="28"/>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V5" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,106 +953,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="AH1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AI1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -1066,20 +1066,20 @@
         <v>44267.606574074103</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1097,67 +1097,67 @@
         <v>4</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2">
-        <v>5</v>
-      </c>
-      <c r="AF2">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="AH2" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -1171,20 +1171,20 @@
         <v>44267.606747685197</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1202,47 +1202,47 @@
         <v>3</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3">
@@ -1253,10 +1253,10 @@
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1270,20 +1270,20 @@
         <v>44267.607152777797</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1301,52 +1301,52 @@
         <v>3</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="AE4">
         <v>4</v>
@@ -1355,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1375,20 +1375,20 @@
         <v>44267.607210648101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1406,52 +1406,52 @@
         <v>2</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AE5">
         <v>3</v>
@@ -1460,13 +1460,13 @@
         <v>5</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1480,20 +1480,20 @@
         <v>44267.6074421296</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1511,47 +1511,47 @@
         <v>3</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6">
@@ -1562,10 +1562,10 @@
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1579,21 +1579,21 @@
         <v>44267.607662037</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J7">
         <v>3</v>
       </c>
@@ -1610,52 +1610,52 @@
         <v>5</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AE7">
         <v>4</v>
@@ -1664,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1684,20 +1684,20 @@
         <v>44267.607858796298</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1715,47 +1715,47 @@
         <v>5</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8">
@@ -1766,10 +1766,10 @@
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -1783,20 +1783,20 @@
         <v>44267.607858796298</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1814,67 +1814,67 @@
         <v>4</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE9">
-        <v>3</v>
-      </c>
-      <c r="AF9">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="AH9" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -1888,20 +1888,20 @@
         <v>44267.607881944401</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1919,52 +1919,52 @@
         <v>4</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AE10">
         <v>2</v>
@@ -1973,13 +1973,13 @@
         <v>1</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -1993,20 +1993,20 @@
         <v>44267.6081134259</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2024,52 +2024,52 @@
         <v>4</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE11">
         <v>3</v>
@@ -2078,13 +2078,13 @@
         <v>2</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -2098,20 +2098,20 @@
         <v>44267.608541666697</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -2129,49 +2129,49 @@
         <v>5</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12">
@@ -2181,13 +2181,13 @@
         <v>2</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -2201,20 +2201,20 @@
         <v>44267.6086574074</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -2232,52 +2232,52 @@
         <v>3</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE13">
         <v>2</v>
@@ -2286,13 +2286,13 @@
         <v>4</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -2306,20 +2306,20 @@
         <v>44267.608761574098</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2337,49 +2337,49 @@
         <v>1</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14">
@@ -2390,10 +2390,10 @@
       </c>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -2407,20 +2407,20 @@
         <v>44267.6090625</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -2438,52 +2438,52 @@
         <v>5</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -2492,13 +2492,13 @@
         <v>5</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -2512,20 +2512,20 @@
         <v>44267.610671296301</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -2543,52 +2543,52 @@
         <v>5</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AE16">
         <v>4</v>
@@ -2597,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -2617,20 +2617,20 @@
         <v>44267.6109027778</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -2648,47 +2648,47 @@
         <v>3</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="AE17">
@@ -2699,10 +2699,10 @@
       </c>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -2716,20 +2716,20 @@
         <v>44267.611423611103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2747,49 +2747,49 @@
         <v>5</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18">
@@ -2800,10 +2800,10 @@
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -2817,20 +2817,20 @@
         <v>44267.506666666697</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J19" s="4">
         <v>2</v>
@@ -2848,47 +2848,47 @@
         <v>5</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4">
@@ -2899,10 +2899,10 @@
       </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -2916,20 +2916,20 @@
         <v>44267.506724537001</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -2947,47 +2947,47 @@
         <v>5</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4">
@@ -2998,10 +2998,10 @@
       </c>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -3015,17 +3015,17 @@
         <v>44267.506770833301</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
@@ -3044,49 +3044,49 @@
         <v>5</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4">
@@ -3096,13 +3096,13 @@
         <v>1</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -3116,20 +3116,20 @@
         <v>44267.507164351897</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J22" s="4">
         <v>2</v>
@@ -3147,47 +3147,47 @@
         <v>2</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4">
@@ -3197,13 +3197,13 @@
         <v>3</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -3217,20 +3217,20 @@
         <v>44267.507581018501</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J23" s="4">
         <v>2</v>
@@ -3248,52 +3248,52 @@
         <v>5</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AE23" s="4">
         <v>2</v>
@@ -3302,13 +3302,13 @@
         <v>1</v>
       </c>
       <c r="AG23" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -3322,20 +3322,20 @@
         <v>44267.5079050926</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -3353,47 +3353,47 @@
         <v>5</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4">
@@ -3404,10 +3404,10 @@
       </c>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
@@ -3421,20 +3421,20 @@
         <v>44267.507974537002</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J25" s="4">
         <v>2</v>
@@ -3452,49 +3452,49 @@
         <v>5</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4">
@@ -3504,13 +3504,13 @@
         <v>1</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -3524,20 +3524,20 @@
         <v>44267.508726851796</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J26" s="4">
         <v>2</v>
@@ -3555,49 +3555,49 @@
         <v>3</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4">
@@ -3607,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -3627,20 +3627,20 @@
         <v>44267.5091203704</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J27" s="4">
         <v>3</v>
@@ -3658,49 +3658,49 @@
         <v>5</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4">
@@ -3710,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -3730,20 +3730,20 @@
         <v>44267.511921296304</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
@@ -3761,52 +3761,52 @@
         <v>5</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AE28" s="4">
         <v>4</v>
@@ -3815,13 +3815,13 @@
         <v>1</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
@@ -3835,20 +3835,20 @@
         <v>44267.512812499997</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
@@ -3866,52 +3866,52 @@
         <v>5</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE29" s="4">
         <v>1</v>
@@ -3920,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="AG29" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -3940,20 +3940,20 @@
         <v>44267.515300925901</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -3971,50 +3971,50 @@
         <v>5</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD30" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="AD30" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="AE30" s="4">
         <v>2</v>
@@ -4023,13 +4023,13 @@
         <v>1</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH30" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -4043,20 +4043,20 @@
         <v>44267.5153587963</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J31" s="4">
         <v>3</v>
@@ -4074,52 +4074,52 @@
         <v>2</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AE31" s="4">
         <v>3</v>
@@ -4128,13 +4128,13 @@
         <v>4</v>
       </c>
       <c r="AG31" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -4148,20 +4148,20 @@
         <v>44267.5155324074</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J32" s="4">
         <v>2</v>
@@ -4177,29 +4177,29 @@
         <v>5</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4">
@@ -4210,10 +4210,10 @@
       </c>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -4227,20 +4227,20 @@
         <v>44267.516724537003</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
@@ -4258,52 +4258,52 @@
         <v>5</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AE33" s="4">
         <v>3</v>
@@ -4312,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
@@ -4332,20 +4332,20 @@
         <v>44533.431087962963</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H34" s="4">
         <v>11</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J34" s="4">
         <v>3</v>
@@ -4363,47 +4363,47 @@
         <v>3</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD34" s="4">
         <v>2</v>
@@ -4414,10 +4414,10 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI34" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AI34" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
@@ -4431,20 +4431,20 @@
         <v>44533.431111111109</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H35" s="4">
         <v>11</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J35" s="4">
         <v>5</v>
@@ -4462,43 +4462,43 @@
         <v>2</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -4511,10 +4511,10 @@
       </c>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI35" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AI35" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
@@ -4528,20 +4528,20 @@
         <v>44533.431643518517</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H36" s="4">
         <v>11</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J36" s="4">
         <v>3</v>
@@ -4559,47 +4559,47 @@
         <v>2</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AD36" s="4">
         <v>5</v>
@@ -4610,10 +4610,10 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI36" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AI36" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
@@ -4627,20 +4627,20 @@
         <v>44533.43209490741</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H37" s="4">
         <v>11</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J37" s="4">
         <v>3</v>
@@ -4656,47 +4656,47 @@
         <v>3</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="4">
         <v>3</v>
@@ -4707,10 +4707,10 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI37" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AI37" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
@@ -4724,20 +4724,20 @@
         <v>44533.432280092595</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H38" s="4">
         <v>11</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J38" s="4">
         <v>4</v>
@@ -4755,47 +4755,47 @@
         <v>3</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AD38" s="4">
         <v>2</v>
@@ -4806,10 +4806,10 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI38" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AI38" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
@@ -4823,20 +4823,20 @@
         <v>44533.432337962964</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H39" s="4">
         <v>11</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J39" s="4">
         <v>3</v>
@@ -4854,49 +4854,49 @@
         <v>3</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD39" s="4">
         <v>3</v>
@@ -4907,10 +4907,10 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI39" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AI39" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
@@ -4924,20 +4924,20 @@
         <v>44533.432500000003</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H40" s="4">
         <v>11</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
@@ -4955,47 +4955,47 @@
         <v>5</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD40" s="4">
         <v>1</v>
@@ -5006,10 +5006,10 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI40" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AI40" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
